--- a/biology/Botanique/Griffonia/Griffonia.xlsx
+++ b/biology/Botanique/Griffonia/Griffonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Griffonia est un genre de plantes la famille des Caesalpiniaceae selon la classification classique, ou des Fabaceae (sous-famille des Caesalpinioideae) selon la classification phylogénétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Griffonia Baill. ne doit pas être confondu avec Griffonia Hook.f., nom illégitime synonyme de Dactyladenia Welw.
 </t>
@@ -542,17 +556,19 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (25 mai 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (25 mai 2013) :
 Griffonia physocarpa
 Griffonia simplicifolia
 Griffonia speciosa
 Griffonia tessmannii
-Selon NCBI  (25 mai 2013)[2] :
+Selon NCBI  (25 mai 2013) :
 Griffonia physocarpa
 Griffonia simplicifolia
-Selon Tropicos                                           (25 mai 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 Griffonia physocarpa Baill.
 Griffonia simplicifolia (M. Vahl ex DC.) Baill.
 Griffonia speciosa (Welw. ex Benth.) Taub.
